--- a/doc/테이블컬럼.xlsx
+++ b/doc/테이블컬럼.xlsx
@@ -15,7 +15,7 @@
     <sheet name="테이블 컬럼명" sheetId="36" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'테이블 컬럼명'!$A$1:$M$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'테이블 컬럼명'!$A$1:$M$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="218">
   <si>
     <t>사용자명</t>
   </si>
@@ -222,494 +222,556 @@
     <t>menu_component</t>
   </si>
   <si>
+    <t>공통코드</t>
+  </si>
+  <si>
+    <t>common_codes</t>
+  </si>
+  <si>
+    <t>코드종류</t>
+  </si>
+  <si>
+    <t>common_kind_code</t>
+  </si>
+  <si>
+    <t>코드</t>
+  </si>
+  <si>
+    <t>common_code</t>
+  </si>
+  <si>
+    <t>코드명</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>사용자생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여요금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점경도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인승구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전면허번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허만료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허발행일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량이미지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여요금대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여요금소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용가능시간인수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용가능시간반납</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여요금할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점기본주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량종류정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent_cars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_code</t>
+  </si>
+  <si>
+    <t>rate_code</t>
+  </si>
+  <si>
+    <t>rental_rate_sub_category</t>
+  </si>
+  <si>
+    <t>rental_rate</t>
+  </si>
+  <si>
+    <t>rental_discount_rate</t>
+  </si>
+  <si>
+    <t>branch_name</t>
+  </si>
+  <si>
+    <t>branch_longitude</t>
+  </si>
+  <si>
+    <t>branch_latitude</t>
+  </si>
+  <si>
+    <t>branch_detailed_address</t>
+  </si>
+  <si>
+    <t>branch_phone_number</t>
+  </si>
+  <si>
+    <t>available_pickup_time</t>
+  </si>
+  <si>
+    <t>available_return_time</t>
+  </si>
+  <si>
+    <t>reservation_code</t>
+  </si>
+  <si>
+    <t>rental_location</t>
+  </si>
+  <si>
+    <t>rental_date</t>
+  </si>
+  <si>
+    <t>rental_time</t>
+  </si>
+  <si>
+    <t>return_location</t>
+  </si>
+  <si>
+    <t>return_date</t>
+  </si>
+  <si>
+    <t>return_time</t>
+  </si>
+  <si>
+    <t>payment_category</t>
+  </si>
+  <si>
+    <t>payment_amount</t>
+  </si>
+  <si>
+    <t>user_phone_number</t>
+  </si>
+  <si>
+    <t>user_birth_date</t>
+  </si>
+  <si>
+    <t>driver_license_number</t>
+  </si>
+  <si>
+    <t>license_expiry_date</t>
+  </si>
+  <si>
+    <t>license_issue_date</t>
+  </si>
+  <si>
+    <t>user_category</t>
+  </si>
+  <si>
+    <t>usage_status</t>
+  </si>
+  <si>
+    <t>admin_code</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>admin_name</t>
+  </si>
+  <si>
+    <t>response_content</t>
+  </si>
+  <si>
+    <t>rental_rates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquirys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점우편번호코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branchs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_type_code</t>
+  </si>
+  <si>
+    <t>car_type_category</t>
+  </si>
+  <si>
+    <t>car_type_name</t>
+  </si>
+  <si>
+    <t>seating_capacity</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>speed_limit</t>
+  </si>
+  <si>
+    <t>license_restriction</t>
+  </si>
+  <si>
+    <t>car_manufacturer</t>
+  </si>
+  <si>
+    <t>car_code</t>
+  </si>
+  <si>
+    <t>car_number</t>
+  </si>
+  <si>
+    <t>model_year</t>
+  </si>
+  <si>
+    <t>car_image_name</t>
+  </si>
+  <si>
+    <t>rental_rate_main_category</t>
+  </si>
+  <si>
+    <t>branch_basic_address</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>payment_type</t>
+  </si>
+  <si>
+    <t>admin_password</t>
+  </si>
+  <si>
+    <t>admin_privileges</t>
+  </si>
+  <si>
     <t>inquiry_code</t>
   </si>
   <si>
-    <t>inquiry_title</t>
-  </si>
-  <si>
-    <t>공통코드</t>
-  </si>
-  <si>
-    <t>common_codes</t>
-  </si>
-  <si>
-    <t>코드종류</t>
-  </si>
-  <si>
-    <t>common_kind_code</t>
-  </si>
-  <si>
-    <t>코드</t>
-  </si>
-  <si>
-    <t>common_code</t>
-  </si>
-  <si>
-    <t>코드명</t>
-  </si>
-  <si>
-    <t>common_name</t>
-  </si>
-  <si>
-    <t>사용자생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차종구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차종코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차종명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여요금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점경도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여장소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반납장소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반납일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반납시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인승구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전면허번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면허만료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면허발행일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면허제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>년식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량이미지명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요금코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여요금대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여요금소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용가능시간인수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용가능시간반납</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점위도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질의코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질의제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질의내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여요금할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점기본주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점상세주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량종류정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요금정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질의정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rent_cars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_types</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>responses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_code</t>
-  </si>
-  <si>
-    <t>rate_code</t>
-  </si>
-  <si>
-    <t>rental_rate_sub_category</t>
-  </si>
-  <si>
-    <t>rental_rate</t>
-  </si>
-  <si>
-    <t>rental_discount_rate</t>
-  </si>
-  <si>
-    <t>branch_name</t>
-  </si>
-  <si>
-    <t>branch_longitude</t>
-  </si>
-  <si>
-    <t>branch_latitude</t>
-  </si>
-  <si>
-    <t>branch_detailed_address</t>
-  </si>
-  <si>
-    <t>branch_phone_number</t>
-  </si>
-  <si>
-    <t>available_pickup_time</t>
-  </si>
-  <si>
-    <t>available_return_time</t>
-  </si>
-  <si>
-    <t>reservation_code</t>
-  </si>
-  <si>
-    <t>rental_location</t>
-  </si>
-  <si>
-    <t>rental_date</t>
-  </si>
-  <si>
-    <t>rental_time</t>
-  </si>
-  <si>
-    <t>return_location</t>
-  </si>
-  <si>
-    <t>return_date</t>
-  </si>
-  <si>
-    <t>return_time</t>
-  </si>
-  <si>
-    <t>payment_category</t>
-  </si>
-  <si>
-    <t>payment_amount</t>
-  </si>
-  <si>
-    <t>user_phone_number</t>
-  </si>
-  <si>
-    <t>user_birth_date</t>
-  </si>
-  <si>
-    <t>driver_license_number</t>
-  </si>
-  <si>
-    <t>license_expiry_date</t>
-  </si>
-  <si>
-    <t>license_issue_date</t>
-  </si>
-  <si>
-    <t>user_category</t>
-  </si>
-  <si>
-    <t>usage_status</t>
-  </si>
-  <si>
-    <t>admin_code</t>
-  </si>
-  <si>
-    <t>admin_id</t>
-  </si>
-  <si>
-    <t>admin_name</t>
-  </si>
-  <si>
-    <t>admin_privileges</t>
-  </si>
-  <si>
-    <t>response_content</t>
-  </si>
-  <si>
-    <t>rental_rates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inquirys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점우편번호코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branchs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_type_code</t>
-  </si>
-  <si>
-    <t>car_type_category</t>
-  </si>
-  <si>
-    <t>car_type_name</t>
-  </si>
-  <si>
-    <t>seating_capacity</t>
-  </si>
-  <si>
-    <t>fuel_type</t>
-  </si>
-  <si>
-    <t>speed_limit</t>
-  </si>
-  <si>
-    <t>license_restriction</t>
-  </si>
-  <si>
-    <t>car_manufacturer</t>
-  </si>
-  <si>
-    <t>car_code</t>
-  </si>
-  <si>
-    <t>car_number</t>
-  </si>
-  <si>
-    <t>model_year</t>
-  </si>
-  <si>
-    <t>car_image_name</t>
-  </si>
-  <si>
-    <t>rental_rate_main_category</t>
-  </si>
-  <si>
-    <t>branch_basic_address</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>payment_type</t>
-  </si>
-  <si>
-    <t>admin_password</t>
-  </si>
-  <si>
-    <t>inquiry_content</t>
-  </si>
-  <si>
     <t>response_code</t>
+  </si>
+  <si>
+    <t>post_type</t>
+  </si>
+  <si>
+    <t>post_title</t>
+  </si>
+  <si>
+    <t>post_content</t>
+  </si>
+  <si>
+    <t>author_code</t>
+  </si>
+  <si>
+    <t>author_tpye</t>
+  </si>
+  <si>
+    <t>review_code</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>inquiry_status</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1172,7 @@
         <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>26</v>
@@ -1118,16 +1180,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1156,16 +1218,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1188,16 +1250,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1220,16 +1282,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
@@ -1252,16 +1314,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -1284,16 +1346,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
@@ -1316,16 +1378,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
@@ -1348,16 +1410,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -1380,10 +1442,10 @@
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
@@ -1412,10 +1474,10 @@
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>41</v>
@@ -1444,16 +1506,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1482,16 +1544,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -1514,16 +1576,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1546,16 +1608,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
@@ -1578,16 +1640,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1610,16 +1672,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1642,10 +1704,10 @@
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>46</v>
@@ -1674,10 +1736,10 @@
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -1706,16 +1768,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -1744,16 +1806,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
@@ -1776,16 +1838,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
@@ -1808,16 +1870,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
         <v>37</v>
@@ -1840,16 +1902,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -1875,16 +1937,16 @@
     </row>
     <row r="25" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -1910,10 +1972,10 @@
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>46</v>
@@ -1942,10 +2004,10 @@
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>41</v>
@@ -1974,13 +2036,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -2012,13 +2074,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
         <v>49</v>
@@ -2044,10 +2106,10 @@
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>46</v>
@@ -2076,10 +2138,10 @@
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
@@ -2108,16 +2170,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
         <v>27</v>
@@ -2146,16 +2208,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -2178,16 +2240,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -2207,16 +2269,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -2236,13 +2298,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -2268,13 +2330,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -2297,16 +2359,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -2326,16 +2388,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -2355,16 +2417,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -2384,16 +2446,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E41" t="s">
         <v>37</v>
@@ -2402,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
@@ -2413,16 +2475,16 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
         <v>37</v>
@@ -2431,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J42" t="s">
         <v>31</v>
@@ -2442,10 +2504,10 @@
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>46</v>
@@ -2474,10 +2536,10 @@
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>41</v>
@@ -2506,16 +2568,16 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E45" t="s">
         <v>27</v>
@@ -2544,13 +2606,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -2576,16 +2638,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E47" t="s">
         <v>27</v>
@@ -2608,16 +2670,16 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
         <v>27</v>
@@ -2640,16 +2702,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
         <v>37</v>
@@ -2672,16 +2734,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
         <v>37</v>
@@ -2693,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J50" t="s">
         <v>31</v>
@@ -2704,16 +2766,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
         <v>27</v>
@@ -2736,16 +2798,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
         <v>37</v>
@@ -2768,16 +2830,16 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E53" t="s">
         <v>37</v>
@@ -2789,7 +2851,7 @@
         <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
@@ -2800,16 +2862,16 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
         <v>37</v>
@@ -2832,16 +2894,16 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E55" t="s">
         <v>37</v>
@@ -2864,16 +2926,16 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
         <v>27</v>
@@ -2899,10 +2961,10 @@
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>46</v>
@@ -2931,10 +2993,10 @@
     </row>
     <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>41</v>
@@ -2963,13 +3025,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -3001,10 +3063,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
@@ -3033,10 +3095,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -3065,10 +3127,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>38</v>
@@ -3097,16 +3159,16 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -3129,16 +3191,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
         <v>37</v>
@@ -3161,16 +3223,16 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -3193,16 +3255,16 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
         <v>37</v>
@@ -3225,16 +3287,16 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
         <v>37</v>
@@ -3257,16 +3319,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E68" t="s">
         <v>37</v>
@@ -3289,16 +3351,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
         <v>37</v>
@@ -3321,10 +3383,10 @@
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>46</v>
@@ -3353,10 +3415,10 @@
     </row>
     <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>41</v>
@@ -3385,16 +3447,16 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
         <v>27</v>
@@ -3423,16 +3485,16 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -3455,16 +3517,16 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
@@ -3487,16 +3549,16 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
         <v>13</v>
@@ -3519,16 +3581,16 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="E76" t="s">
         <v>13</v>
@@ -3551,16 +3613,16 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E77" t="s">
         <v>37</v>
@@ -3583,10 +3645,10 @@
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>46</v>
@@ -3615,10 +3677,10 @@
     </row>
     <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>41</v>
@@ -3646,17 +3708,17 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" t="s">
-        <v>119</v>
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
         <v>27</v>
@@ -3684,29 +3746,29 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" t="s">
-        <v>178</v>
-      </c>
-      <c r="C81" t="s">
-        <v>120</v>
+      <c r="A81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F81">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J81" t="s">
         <v>31</v>
@@ -3716,29 +3778,29 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82" t="s">
-        <v>121</v>
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F82">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J82" t="s">
         <v>31</v>
@@ -3748,23 +3810,23 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" t="s">
-        <v>178</v>
-      </c>
-      <c r="C83" t="s">
-        <v>107</v>
+      <c r="A83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -3779,91 +3841,88 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" t="s">
-        <v>178</v>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84"/>
-      <c r="H84"/>
+        <v>37</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
-      </c>
-      <c r="K84"/>
+        <v>31</v>
+      </c>
       <c r="L84">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" t="s">
-        <v>178</v>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
-      </c>
-      <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85"/>
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>100</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
-      </c>
-      <c r="K85"/>
+        <v>31</v>
+      </c>
       <c r="L85">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>137</v>
-      </c>
-      <c r="B86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" t="s">
-        <v>122</v>
+      <c r="A86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
       </c>
       <c r="I86" t="s">
         <v>30</v>
@@ -3871,69 +3930,57 @@
       <c r="J86" t="s">
         <v>31</v>
       </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
       <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" t="s">
-        <v>119</v>
+      <c r="A87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
       </c>
       <c r="I87" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J87" t="s">
         <v>31</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>137</v>
-      </c>
-      <c r="B88" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" t="s">
-        <v>123</v>
+      <c r="A88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
       </c>
       <c r="F88">
-        <v>2000</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I88" t="s">
         <v>34</v>
@@ -3942,53 +3989,50 @@
         <v>31</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89" t="s">
-        <v>142</v>
-      </c>
-      <c r="C89" t="s">
-        <v>109</v>
+      <c r="A89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="E89" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
         <v>28</v>
       </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
       <c r="I89" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="L89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>137</v>
-      </c>
-      <c r="B90" t="s">
-        <v>142</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E90" t="s">
         <v>43</v>
@@ -3996,69 +4040,72 @@
       <c r="F90" t="s">
         <v>28</v>
       </c>
-      <c r="G90"/>
-      <c r="H90"/>
       <c r="I90" t="s">
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
-      </c>
-      <c r="K90"/>
+        <v>45</v>
+      </c>
       <c r="L90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" t="s">
-        <v>142</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" t="s">
-        <v>28</v>
-      </c>
-      <c r="G91"/>
-      <c r="H91"/>
+        <v>13</v>
+      </c>
+      <c r="F91">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
-      </c>
-      <c r="K91"/>
+        <v>31</v>
+      </c>
       <c r="L91">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>29</v>
       </c>
       <c r="I92" t="s">
         <v>30</v>
@@ -4066,121 +4113,124 @@
       <c r="J92" t="s">
         <v>31</v>
       </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
       <c r="L92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="G93" t="s">
+        <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J93" t="s">
         <v>31</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>28</v>
       </c>
       <c r="I94" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>28</v>
       </c>
       <c r="I95" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
       </c>
       <c r="I96" t="s">
         <v>30</v>
@@ -4188,86 +4238,101 @@
       <c r="J96" t="s">
         <v>31</v>
       </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
       <c r="L96">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="D97" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F97">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J97" t="s">
         <v>31</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="D98" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
       </c>
       <c r="I98" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J98" t="s">
         <v>31</v>
       </c>
       <c r="L98">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="E99" t="s">
         <v>13</v>
       </c>
       <c r="F99">
-        <v>100</v>
+        <v>2000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>29</v>
       </c>
       <c r="I99" t="s">
         <v>34</v>
@@ -4276,27 +4341,30 @@
         <v>31</v>
       </c>
       <c r="L99">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="D100" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F100">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
       </c>
       <c r="I100" t="s">
         <v>34</v>
@@ -4305,50 +4373,53 @@
         <v>31</v>
       </c>
       <c r="L100">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="D101" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
-      </c>
-      <c r="F101" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>29</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L101">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E102" t="s">
         <v>43</v>
@@ -4360,146 +4431,155 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L102">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>28</v>
       </c>
       <c r="I103" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>29</v>
       </c>
       <c r="I104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J104" t="s">
         <v>31</v>
       </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
       <c r="L104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F105">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>29</v>
       </c>
       <c r="I105" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J105" t="s">
         <v>31</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="D106" t="s">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
-      </c>
-      <c r="F106" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>29</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E107" t="s">
         <v>43</v>
@@ -4511,14 +4591,431 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
+        <v>48</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" t="s">
+        <v>44</v>
+      </c>
+      <c r="J108" t="s">
         <v>45</v>
       </c>
-      <c r="L107">
+      <c r="L108">
         <v>5</v>
       </c>
     </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" t="s">
+        <v>208</v>
+      </c>
+      <c r="E109" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+      <c r="I109" t="s">
+        <v>30</v>
+      </c>
+      <c r="J109" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" t="s">
+        <v>30</v>
+      </c>
+      <c r="J110" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111" t="s">
+        <v>217</v>
+      </c>
+      <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" t="s">
+        <v>34</v>
+      </c>
+      <c r="J111" t="s">
+        <v>31</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" t="s">
+        <v>44</v>
+      </c>
+      <c r="J112" t="s">
+        <v>48</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s">
+        <v>44</v>
+      </c>
+      <c r="J113" t="s">
+        <v>45</v>
+      </c>
+      <c r="L113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>209</v>
+      </c>
+      <c r="E114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+      <c r="I114" t="s">
+        <v>30</v>
+      </c>
+      <c r="J114" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" t="s">
+        <v>30</v>
+      </c>
+      <c r="J115" t="s">
+        <v>31</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116">
+        <v>2000</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" t="s">
+        <v>31</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D117" t="s">
+        <v>213</v>
+      </c>
+      <c r="E117" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+      <c r="I117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D118" t="s">
+        <v>214</v>
+      </c>
+      <c r="E118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" t="s">
+        <v>34</v>
+      </c>
+      <c r="J118" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>47</v>
+      </c>
+      <c r="E119" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" t="s">
+        <v>28</v>
+      </c>
+      <c r="I119" t="s">
+        <v>44</v>
+      </c>
+      <c r="J119" t="s">
+        <v>48</v>
+      </c>
+      <c r="L119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" t="s">
+        <v>44</v>
+      </c>
+      <c r="J120" t="s">
+        <v>45</v>
+      </c>
+      <c r="L120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M91"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
